--- a/data/trans_camb/P2A_lim_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,37</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 7,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 6,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,84; 12,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 9,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 6,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,24; 10,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 7,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 5,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,25; 10,36</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>175,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,82%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,67; 176,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,7; 139,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,43; 298,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,94; 212,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,04; 141,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,2; 246,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,12; 166,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,21; 121,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,86; 228,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 5,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 2,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 8,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,61; 6,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 3,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,34; 10,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 5,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 2,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,45; 8,5</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,67%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,45; 91,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,94; 37,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 129,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,22; 109,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 60,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,36; 172,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,54; 85,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,12; 31,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,11; 124,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 4,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; -0,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 12,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 4,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; 1,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,31; 55,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 3,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; -0,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,54; 43,45</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>292,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>234,1%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,26; 90,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,84; -2,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,36; 222,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,05; 62,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,11; 17,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,23; 724,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 56,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,55; 1,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,14; 614,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 5,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 3,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 6,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 5,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 2,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 4,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 4,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 2,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 4,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 98,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,58; 64,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,55; 117,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 64,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,35; 29,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,28; 53,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,92; 59,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,99; 32,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,85; 64,61</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 4,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 7,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 4,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 24,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 4,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,41; 16,35</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,27%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,19%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,15; 69,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,36; 24,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,24; 131,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,23; 65,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,91; 24,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,18; 310,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,21; 60,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 21,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,64; 226,63</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2A_lim_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Habitat-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,37</t>
+          <t>8,43</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,25</t>
+          <t>1,37; 7,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,0</t>
+          <t>1,01; 6,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,28</t>
+          <t>6,3; 12,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,01</t>
+          <t>3,11; 9,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,14</t>
+          <t>0,99; 6,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,32</t>
+          <t>4,75; 10,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,22</t>
+          <t>3,2; 7,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,64</t>
+          <t>1,66; 5,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,36</t>
+          <t>6,22; 10,49</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>175,7%</t>
+          <t>176,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>142,09%</t>
+          <t>143,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>157,82%</t>
+          <t>159,05%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 176,87</t>
+          <t>22,05; 179,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 139,28</t>
+          <t>15,68; 164,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,43; 298,44</t>
+          <t>94,57; 303,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,94; 212,77</t>
+          <t>46,35; 206,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 141,85</t>
+          <t>10,42; 152,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,2; 246,83</t>
+          <t>67,75; 249,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 166,67</t>
+          <t>50,74; 164,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,21; 121,06</t>
+          <t>26,9; 128,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>97,86; 228,75</t>
+          <t>98,72; 228,66</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>6,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,34</t>
+          <t>0,23; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,17</t>
+          <t>-2,82; 2,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 8,19</t>
+          <t>-2,5; 8,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,94</t>
+          <t>1,66; 7,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,72</t>
+          <t>-1,45; 3,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,68</t>
+          <t>5,54; 10,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,6</t>
+          <t>1,74; 5,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,09</t>
+          <t>-1,31; 2,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,5</t>
+          <t>0,93; 8,41</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>61,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>106,76%</t>
+          <t>108,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>81,67%</t>
+          <t>82,29%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 91,79</t>
+          <t>3,23; 92,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 37,93</t>
+          <t>-33,1; 34,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 129,33</t>
+          <t>-18,5; 129,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 109,22</t>
+          <t>17,75; 110,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 60,38</t>
+          <t>-16,07; 57,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,36; 172,48</t>
+          <t>58,59; 164,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,54; 85,96</t>
+          <t>19,62; 83,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 31,25</t>
+          <t>-16,35; 32,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 124,14</t>
+          <t>22,57; 123,81</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,93</t>
+          <t>24,95</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,99</t>
+          <t>18,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,83</t>
+          <t>-1,24; 4,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -0,18</t>
+          <t>-5,57; -0,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,06</t>
+          <t>5,2; 12,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,35</t>
+          <t>-1,54; 4,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,09</t>
+          <t>-4,68; 1,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 55,49</t>
+          <t>4,92; 54,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,56</t>
+          <t>-0,65; 3,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; -0,2</t>
+          <t>-4,23; -0,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 43,45</t>
+          <t>6,61; 45,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-39,38%</t>
+          <t>-39,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>124,88%</t>
+          <t>125,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,03%</t>
+          <t>-20,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>292,14%</t>
+          <t>291,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-28,94%</t>
+          <t>-28,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>234,1%</t>
+          <t>234,24%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 90,37</t>
+          <t>-14,97; 86,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,84; -2,85</t>
+          <t>-63,4; -3,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,36; 222,92</t>
+          <t>55,92; 210,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 62,16</t>
+          <t>-16,4; 70,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 17,06</t>
+          <t>-47,35; 15,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,23; 724,13</t>
+          <t>50,2; 769,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 56,11</t>
+          <t>-7,9; 55,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 1,54</t>
+          <t>-47,93; -3,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82,14; 614,44</t>
+          <t>82,47; 630,52</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,66</t>
+          <t>0,18; 5,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,87</t>
+          <t>-1,17; 3,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,88</t>
+          <t>2,11; 7,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 5,49</t>
+          <t>-0,02; 5,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,57</t>
+          <t>-2,65; 2,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,48</t>
+          <t>-1,47; 4,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,49</t>
+          <t>0,6; 4,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,52</t>
+          <t>-1,19; 2,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,95</t>
+          <t>1,17; 5,05</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>63,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>36,48%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 98,55</t>
+          <t>1,93; 98,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 64,67</t>
+          <t>-13,19; 64,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,55; 117,61</t>
+          <t>25,64; 125,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 64,83</t>
+          <t>-0,11; 63,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 29,77</t>
+          <t>-24,11; 29,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 53,22</t>
+          <t>-11,61; 48,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 59,81</t>
+          <t>6,54; 61,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 32,7</t>
+          <t>-12,52; 33,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,85; 64,61</t>
+          <t>11,58; 64,88</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1516,27 +1516,27 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>8,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,25</t>
+          <t>1,48; 4,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,5</t>
+          <t>-0,98; 1,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,99</t>
+          <t>3,34; 8,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,85</t>
+          <t>2,0; 4,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,83</t>
+          <t>-0,67; 2,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,23; 24,82</t>
+          <t>5,29; 24,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,17</t>
+          <t>2,28; 4,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,45</t>
+          <t>-0,43; 1,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,41; 16,35</t>
+          <t>5,6; 20,5</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>130,27%</t>
+          <t>131,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>114,19%</t>
+          <t>114,93%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,15; 69,55</t>
+          <t>20,37; 70,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 24,88</t>
+          <t>-13,5; 28,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>51,24; 131,69</t>
+          <t>47,85; 127,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,23; 65,43</t>
+          <t>22,41; 65,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 24,55</t>
+          <t>-7,53; 28,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>63,18; 310,55</t>
+          <t>64,3; 322,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,21; 60,56</t>
+          <t>28,81; 60,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 21,14</t>
+          <t>-5,49; 20,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>71,64; 226,63</t>
+          <t>74,06; 262,23</t>
         </is>
       </c>
     </row>
